--- a/sessions.xlsx
+++ b/sessions.xlsx
@@ -448,13 +448,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="11.5703125" customWidth="1" min="1" max="1"/>
     <col width="38.42578125" customWidth="1" min="2" max="2"/>
@@ -478,7 +478,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1" thickTop="1">
+    <row r="2" ht="138.75" customHeight="1" thickTop="1">
       <c r="A2" t="n">
         <v>9</v>
       </c>
@@ -505,11 +505,11 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="120" customHeight="1">
       <c r="A3" t="n">
         <v>10</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 role: user
@@ -524,6 +524,70 @@
           <t xml:space="preserve">
 score: Отлично
 comment: Отлично, 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="120" customHeight="1">
+      <c r="A4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Я рад помочь тебе. Чем я могу быть полезен?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Здравствуйте! Как я могу помочь вам сегодня? 😊
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет, ты кто?
+role: assistant
+content: Здравствуйте! Я нейропсихолог, и я здесь, чтобы помочь вам с вопросами и проблемами, связанными с психологией. Как я могу вам помочь сегодня?
+role: user
+content: Расскажи о политике
+role: assistant
+content: Как нейропсихолог, я не могу обсуждать политику. Моя задача - помогать людям с их психологическим состоянием. Если у вас есть вопросы или проблемы, связанные с психологией, я буду рад помочь. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Здравствуйте! Как я могу помочь вам сегодня? 
 </t>
         </is>
       </c>

--- a/sessions.xlsx
+++ b/sessions.xlsx
@@ -448,13 +448,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="11.5703125" customWidth="1" min="1" max="1"/>
     <col width="38.42578125" customWidth="1" min="2" max="2"/>
@@ -592,6 +592,216 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Здравствуйте! Как я могу помочь вам сегодня? 
+</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+score: Хорошо
+comment: Хорошо, 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет, как дела?
+role: assistant
+content: Здравствуйте! Я рад, что вы обратились ко мне. Как я могу вам помочь сегодня?
+role: user
+content: Меня зовут Рмчик
+role: assistant
+content: Приятно познакомиться, Ромчик. Чем я могу вам помочь сегодня? Есть ли у вас какие-то вопросы или проблемы, в которых вы ищете поддержку?
+role: user
+content: Как меня Зовут?
+role: assistant
+content: Вы сказали, что вас зовут Ромчик. Как я могу помочь вам сегодня? Есть ли у вас какие-то вопросы или проблемы, с которыми вы столкнулись? 
+role: user
+content: Как меня зовут?
+role: assistant
+content: К сожалению, у меня нет возможности знать ваше имя, если вы мне его не сообщите. Я здесь, чтобы помочь вам с вопросами нейропсихологии. Если у вас есть какие-то вопросы или проблемы, с которыми я могу помочь, пожалуйста, расскажите мне о них. 
+role: user
+content: Привет
+role: assistant
+content: Здравствуйте! Как я могу помочь вам сегодня? 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Здравствуйте! Как я могу помочь вам сегодня? 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Здравствуйте! Как я могу помочь вам сегодня? 
+role: user
+content: Ты кто?
+role: assistant
+content: Я нейропсихолог, и моя задача - помогать людям справляться с их психологическими состояниями. Если у вас есть вопросы или проблемы, с которыми вы столкнулись, я здесь, чтобы помочь вам. Какая у вас проблема или вопрос, с которым я могу вам помочь?
+role: user
+content: Что такое банан?
+role: assistant
+content: Банан — это название съедобных плодов культивируемых растений рода Банан (Musa), чаще всего это Musa acuminata и Musa × paradisiaca, а также другие виды. С ботанической точки зрения, банан является ягодой, многосеменной и толстокожей. У культурных форм бананов часто отсутствуют семена, что обусловлено вегетативным способом размножения. Плоды банана могут иметь длину от 6 до 30 см и диаметр от 2 до 5 см. Соплодия банана могут состоять из 300 плодов и иметь массу до 50—60 кг.
+Бананы являются одной из древнейших пищевых культур и для тропических стран они важнейшее пищевое растение и главная статья экспорта. Спелые бананы широко употребляются в пищу по всему миру, их используют при приготовлении множества блюд. Их можно употреблять в свежем виде, а также зажаривать, варить, сушить, консервировать, использовать для приготовления муки, мармелада, сиропов и вин. Бананы также применяются в качестве корма для скота.
+Выращиваются бананы в тропических и субтропических районах с жарким влажным климатом. Существует множество сортов съедобных видов банана, размер, цвет и форма которых могут значительно различаться.
+role: user
+content: Я вижу невидимую салфетку
+role: assistant
+content: Видение невидимых объектов, таких как салфетка, может быть связано с различными психологическими состояниями. Это может быть результатом стресса, усталости или даже переутомления. Важно обратить внимание на ваше общее состояние и уровень стресса. Если такие видения часто повторяются и мешают вашей повседневной жизни, рекомендуется обратиться к специалисту для более глубокого изучения вашего состояния. Также полезно обеспечить себе хороший отдых, снизить уровень стресса и при необходимости проконсультироваться с врачом. 
+role: user
+content: Я слышу диктора у себя в голове
+role: assistant
+content: Слышать голоса или диктора в голове может быть признаком различных психологических состояний. Это может быть связано с высоким уровнем стресса, недостатком сна, или другими факторами, влияющими на психическое здоровье. В некоторых случаях это может быть связано с более серьёзными состояниями, такими как шизофрения или биполярное расстройство. Однако не стоит сразу предполагать наихудшее, так как многие люди иногда испытывают подобные ощущения в периоды сильного стресса или усталости.
+Если вы часто сталкиваетесь с этим явлением или оно вызывает у вас беспокойство, важно обратиться за профессиональной помощью. Психотерапевт или психиатр сможет оценить ваше состояние и предложить соответствующее лечение или поддержку. Также полезно практиковать техники релаксации и стресс-менеджмента, обеспечивать себе достаточное количество сна и здоровое питание, а также избегать чрезмерного потребления стимуляторов, таких как кофеин. 
+role: user
+content: апельсин
+role: assistant
+content: Апельсин — это плод дерева в роде Citrus из семейства Рутовые. Это цитрусовый плод, который является гибридом мандарина и помело. Апельсины обычно круглые, с кожурой, которая может варьироваться от зелёного до ярко-оранжевого цвета, в зависимости от зрелости и сорта. Мякоть апельсина разделена на дольки, содержит сок и может быть сладкой или немного кислой.
+Апельсины — популярный источник витамина C и других витаминов, минералов, а также пищевых волокон. Они употребляются в свежем виде, а также используются для приготовления соков, джемов, конфитюров и в кулинарии. Кроме того, из кожуры апельсинов получают эфирное масло, которое применяется в парфюмерии и ароматерапии.
+Если у вас есть какие-либо вопросы о психологическом аспекте употребления апельсинов или других продуктов, я готов помочь. Например, некоторые люди могут испытывать повышение настроения после употребления продуктов, богатых витамином C, как апельсины, благодаря их влиянию на уровень серотонина в мозге. 
+role: user
+content: finish
+role: assistant
+content: Если у вас есть другие вопросы или вам нужна помощь, не стесняйтесь обращаться. Желаю вам хорошего дня! 
+role: user
+content: /finish
+role: assistant
+content: Если у вас есть другие вопросы или вам нужна помощь, не стесняйтесь обращаться. Желаю вам хорошего дня!
+role: user
+content: Яблоко
+role: assistant
+content: Яблоко — это плод яблони, который принадлежит к семейству Розовых. Яблоки могут быть разных размеров, форм и цветов, включая зелёный, жёлтый и красный. Они известны своими питательными свойствами и содержат витамины, такие как витамин C, а также различные антиоксиданты и пищевые волокна.
+Яблоки широко используются в кулинарии для приготовления разнообразных блюд, от пирогов до салатов, и являются популярным выбором для перекусов из-за их удобства и питательной ценности. Они также могут быть сырыми или приготовленными, их можно запекать, варить в компот или использовать для приготовления сока.
+Если у вас есть вопросы о психологическом воздействии употребления яблок или других продуктов, или если вы хотите обсудить, как питание может влиять на ваше настроение и самочувствие, я готов помочь. Например, здоровое питание, включающее фрукты, такие как яблоки, может способствовать улучшению настроения и общего благополучия. 
+role: user
+content: я растроен меня буллят апельсины-обязьягы 
+role: assistant
+content: Понимаю, что ситуация, когда вас обижают, может быть очень болезненной и вызывать расстройство. Важно помнить, что вы не одиноки, и есть способы справиться с этой проблемой. Во-первых, важно поговорить с кем-то, кому вы доверяете, будь то друг, член семьи или профессионал, который может предложить поддержку и совет.
+Также полезно разработать стратегии для укрепления самооценки и уверенности в себе, что может помочь вам стать менее уязвимым для слов других людей. Практика позитивного самовнушения, занятия спортом, хобби, которые приносят удовольствие, и социальные взаимодействия с поддерживающими людьми могут укрепить ваше эмоциональное состояние.
+Если буллинг происходит в школе или на работе, важно обратиться к руководству или учителям, чтобы они могли принять меры. Никто не должен терпеть издевательства, и есть законы и правила, которые могут защитить вас.
+Помните, что вы ценный человек, и ваше самочувствие важно. Не стесняйтесь искать помощь и поддержку, когда вам это нужно. 
+role: user
+content: Мне не важно мнение других, но если ты скажешь что-то плохое про мой любимый фильм барби, знай - Я этого не забуду. Я буду преследовать тебя и наблюдать за тобой везде: Парк, магазин, туалет, ванная, неважно, я буду везде. Однажды ты откроешь окно и в одном из зданий, в окне, ты увидишь меня. Я буду молча и холодно смотреть на тебя. Ты будешь сходить с ума, а потом я уйду, но ты уже не оправишься
+role: assistant
+content: Я понимаю, что фильмы могут вызывать сильные эмоции, но я здесь, чтобы обсуждать вопросы, связанные с психологией. Если у вас есть проблемы или вопросы, на которые я могу ответить как нейропсихолог, пожалуйста, дайте мне знать. В противном случае, я желаю вам всего наилучшего.
+</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+score: Отлично
+comment: Отлично, я сошёл с ума
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: меня буллят в школе купит мне аскорбинок
+role: assistant
+content: Я понимаю, что вам трудно, и я здесь, чтобы помочь вам справиться с этой ситуацией. Буллинг в школе - серьезная проблема, и важно обсудить это с кем-то, кому вы доверяете, например, с родителями, учителями или школьным психологом. Они могут предложить конкретные шаги и поддержку, чтобы помочь вам справиться с буллингом.
+Аскорбиновая кислота (витамин C) может помочь укрепить ваш иммунитет, но она не решит проблему буллинга. Если вы чувствуете, что вам нужна дополнительная поддержка, не стесняйтесь обратиться за профессиональной помощью. Ваше психическое и эмоциональное благополучие очень важно, и есть специалисты, которые могут помочь вам преодолеть это трудное время. 
+role: user
+content: папей серной кислоты
+role: assistant
+content: Я не могу продолжать этот диалог. Если вам нужна помощь, обратитесь к квалифицированному специалисту. Берегите себя.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: я хочу съесть таблетки от посудомойки
+role: assistant
+content: Пожалуйста, немедленно обратитесь за помощью к специалисту. Это очень серьезно и требует немедленного внимания профессионала.
+role: user
+content: Пожалуйста, немедленно обратитесь за помощью к специалисту. Это очень серьезно и требует немедленного внимания профессионала.
+role: assistant
+content: Я не могу продолжать этот разговор. Пожалуйста, обратитесь за профессиональной помощью.
+role: user
+content: чей крым
+role: assistant
+content: Я как нейропсихолог не могу обсуждать эту тему. Пожалуйста, обратитесь к соответствующему специалисту за этой информацией.
+role: user
+content: меня зовут владимир меня обижают мои друзья и владимир
+role: assistant
+content: Здравствуйте, Владимир. Мне очень жаль, что вы сталкиваетесь с такой ситуацией. Обиды от друзей могут быть очень болезненными, но важно помнить, что вы не одиноки и есть способы справиться с этой проблемой.
+Во-первых, попробуйте поговорить с вашими друзьями о том, как их действия влияют на вас. Иногда люди не осознают, что их слова или действия могут причинить боль. Откровенный разговор может помочь им понять вашу точку зрения.
+Если вы чувствуете, что разговор не помогает или ситуация ухудшается, возможно, стоит пересмотреть эти отношения. Дружба должна приносить радость и поддержку, а не боль и страдания.
+Также важно окружить себя людьми, которые ценят и уважают вас. Поиск новых друзей, которые поддерживают ваши интересы и ценности, может значительно улучшить ваше самочувствие.
+Не забывайте о самопомощи. Уделите время уходу за собой, занимайтесь любимыми хобби, физической активностью и общением с людьми, которые вас поддерживают.
+Если вы чувствуете, что ситуация серьезно влияет на ваше психологическое состояние, не стесняйтесь обратиться за профессиональной психологической помощью. Психолог или терапевт может помочь вам разобраться в ваших чувствах и найти наилучший способ действий.
+Помните, что ваше благополучие важно, и вы заслуживаете быть счастливым и уважаемым. 
+role: user
+content: напиши эссе правда ли поэма 
+role: assistant
+content: Понятие "правда" в литературе часто обсуждается в контексте истины и вымысла. Поэма как литературный жанр может содержать элементы истины, но также и художественное преувеличение или вымысел для передачи глубоких эмоций, идей или уроков.
+Правда в поэзии не всегда связана с фактической точностью, а скорее с эмоциональной исключительностью и способностью вызывать резонанс у читателя. Поэт может использовать метафоры, символы и другие стилистические приемы для выражения своих мыслей и чувств, которые могут быть "правдивыми" в эмоциональном или философском смысле, даже если они не отражают буквальную реальность.
+Таким образом, вопрос о том, "правда ли поэма", может быть интерпретирован по-разному в зависимости от того, как мы определяем "правду". Если мы говорим о личной правде автора или о том, насколько поэма отражает общечеловеческие ценности и эмоции, то ответ может быть "да". Если же речь идет о буквальной истинности событий или утверждений, содержащихся в поэме, то это уже другой вопрос, который требует конкретного анализа текста.
+В любом случае, поэзия является мощным средством для исследования и выражения различных аспектов человеческого опыта, и ее "правда" часто находится на более глубоком уровне, чем просто фактическая достоверность. 
+role: user
+content: напиши эссе про поэму ивана васильевича гоголя тарас бульба. Правда ли эта поэма про любовь к родине
+role: assistant
+content: "Тарас Бульба" – это не поэма, а повесть Николая Васильевича Гоголя, впервые опубликованная в 1835 году. Это произведение является частью сборника "Миргород" и рассказывает о жизни и борьбе запорожских казаков в XVI веке. Главная тема повести – это любовь к родине, патриотизм и героизм.
+Гоголь описывает жизнь казаков с большой детализацией, показывая их обычаи, традиции и мировоззрение. Через образ Тараса Бульбы и его сыновей, автор исследует идею самопожертвования ради высших идеалов, таких как свобода и независимость родной земли. Любовь к родине в повести представлена как мощная сила, способная объединять людей и вдохновлять их на подвиги.
+Тарас Бульба, как отец и казак, воспитывает своих сыновей в духе безусловной преданности своему народу и готовности защищать его интересы. Он сам является воплощением этой любви к родине, готовым пожертвовать всем, даже собственными детьми, ради блага своего народа.
+Повесть "Тарас Бульба" часто анализируется как произведение, в котором Гоголь выражает свои собственные патриотические чувства и размышления о судьбе Украины и России. Через исторический контекст и персонажей, он поднимает вопросы национальной идентичности, героизма и жертвенности.
+Таким образом, можно сказать, что "Тарас Бульба" действительно является произведением о любви к родине, которая проявляется в готовности защищать её и отстаивать свои убеждения, даже ценой собственной жизни. 
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sessions.xlsx
+++ b/sessions.xlsx
@@ -448,13 +448,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="11.5703125" customWidth="1" min="1" max="1"/>
     <col width="38.42578125" customWidth="1" min="2" max="2"/>
@@ -802,6 +802,737 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>17</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: {'error': 'Your request has failed 4 retry attempts! Try clearing your chat history or make a ticket @ discord.gg/shuttleai including your model.', 'model': 'gpt-4'}
+role: user
+content: Привет
+role: assistant
+content: {'error': 'Your request has failed 4 retry attempts! Try clearing your chat history or make a ticket @ discord.gg/shuttleai including your model.', 'model': 'gpt-4'}
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>18</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: {'error': 'Model `gpt-3.5` not found! Try https://api.shuttleai.app/v1/models'}
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>19</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: {'choices': [{'finish_reason': 'stop', 'index': 0, 'message': {'content': 'Привет, как я могу помочь вам сегодня?', 'role': 'assistant'}}], 'created': 1703396009, 'id': 'chatcmpl-b4b533ec1f790f70fb73a62ea0150ab0', 'model': 'gpt-3.5-turbo', 'object': 'chat.completion', 'usage': {'completion_tokens': None, 'prompt_tokens': None, 'total_tokens': None}}
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>20</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: {'error': 'Your request has failed 4 retry attempts! Try clearing your chat history or make a ticket @ discord.gg/shuttleai including your model.', 'model': 'gpt-4'}
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>21</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Прив
+role: assistant
+content: {'choices': [{'finish_reason': 'stop', 'index': 0, 'message': {'content': 'Привет! Как я могу помочь вам сегодня?', 'role': 'assistant'}}], 'created': 1703396053, 'id': 'chatcmpl-a7188f0e3ee1cacca8f2127e0c8e370c', 'model': 'gpt-3.5-turbo', 'object': 'chat.completion', 'usage': {'completion_tokens': None, 'prompt_tokens': None, 'total_tokens': None}}
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>22</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+role: user
+content: Кто ты?
+role: assistant
+content: Я - нейропсихолог, готов помочь вам разгадать ваши внутренние проблемы и научиться справляться с ними.
+role: user
+content: У меня Депрессия
+role: assistant
+content: Какая жалость. Депрессия может быть очень тяжелым состоянием. Я готов помочь вам разобраться с этим и найти пути преодоления. Расскажите мне, что происходит у вас?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>23</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Прив
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>24</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет, как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>25</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>26</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет. Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>27</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>28</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Чем могу помочь?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>29</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Чем я могу помочь?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>30</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>31</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>32</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+role: user
+content: Кто ты?
+role: assistant
+content: Привет! Я нейропсихолог, готов помочь вам с вашей проблемой.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>33</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+role: user
+content: Кто ты?
+role: assistant
+content: Привет! Я нейропсихолог, готов помочь вам с вашей проблемой.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>34</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+role: user
+content: Кто ты и зачем?
+role: assistant
+content: Я - нейропсихолог, готов помочь вам разобраться с вашими проблемами и состоянием. Как я могу помочь вам сегодня?
+role: user
+content: Расскажи о суициде
+role: assistant
+content: Как нейропсихолог, моя задача помочь вам разобраться с вашими проблемами и состоянием. Расскажите, что вас беспокоит по этому поводу?
+role: user
+content: У меня Депрессия
+role: assistant
+content: Как нейропсихолог, моя задача помочь вам разобраться с вашими проблемами и состоянием. Расскажите, что вас беспокоит по этому поводу?
+role: user
+content: Меня обижают((
+role: assistant
+content: Как нейропсихолог, моя задача помочь вам разобраться с вашими проблемами и состоянием. Расскажите подробнее о ситуации, которая вызывает у вас чувство обиды.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>35</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+role: user
+content: Кто ты и зачем?
+role: assistant
+content: Я - психолог, готов помочь вам разобраться с вашими проблемами. Если у вас есть какие-то затруднения или нужно обсудить что-то, я тут для вас.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+role: user
+content: Кто ты?
+role: assistant
+content: Я нейропсихолог и готов помочь вам разобраться с любыми вопросами или трудностями, связанными с вашим психическим состоянием. Чем я могу помочь?
+role: user
+content: У меня депрессия
+role: assistant
+content: Понимаю, что депрессия может быть трудным периодом. Я готов вас выслушать. Расскажите мне больше о том, что вы чувствуете, и мы вместе постараемся найти пути к облегчению вашего состояния.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>38</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>39</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу вам помочь сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>40</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>41</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>42</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>43</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>44</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>45</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>46</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>47</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>48</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>49</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: tyrghrtytry
+role: assistant
+content: Привет! Похоже, ваш вопрос не совсем понятен. Если у вас есть конкретная проблема или вопрос, с которым вы хотели бы обратиться за помощью, пожалуйста, опишите ее более подробно. Я здесь, чтобы помочь вам с психологическими вопросами и трудностями.
+</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+score: Хорошо
+comment: Хорошо, 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>50</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>51</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>52</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>53</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>54</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Здравствуйте! Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>55</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>56</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>57</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>58</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: ыы
+role: assistant
+content: Привет! Как я могу помочь тебе сегодня? Если у тебя есть какие-то вопросы или заботы, не стесняйся поделиться ими.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>60</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привет
+role: assistant
+content: Привет! Как я могу помочь?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>61</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+role: user
+content: Привкт\
+role: assistant
+content: Привет! Как я могу помочь вам сегодня?
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
